--- a/planner1/Project Timeline Update.xlsx
+++ b/planner1/Project Timeline Update.xlsx
@@ -6934,7 +6934,7 @@
         <v>Date of export</v>
       </c>
       <c r="B3" t="str">
-        <v>07/13/2024</v>
+        <v>07/15/2024</v>
       </c>
     </row>
   </sheetData>

--- a/planner1/Project Timeline Update.xlsx
+++ b/planner1/Project Timeline Update.xlsx
@@ -2042,16 +2042,16 @@
         <v>07/02/2024</v>
       </c>
       <c r="I31" t="str">
-        <v/>
+        <v>07/12/2024</v>
       </c>
       <c r="J31" t="str">
-        <v>07/12/2024</v>
+        <v>08/02/2024</v>
       </c>
       <c r="K31" t="str">
         <v>false</v>
       </c>
       <c r="L31" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="M31" t="str">
         <v/>
@@ -2148,16 +2148,16 @@
         <v>07/02/2024</v>
       </c>
       <c r="I33" t="str">
-        <v/>
+        <v>07/12/2024</v>
       </c>
       <c r="J33" t="str">
-        <v>07/12/2024</v>
+        <v>07/19/2024</v>
       </c>
       <c r="K33" t="str">
         <v>false</v>
       </c>
       <c r="L33" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="M33" t="str">
         <v/>
@@ -5275,16 +5275,16 @@
         <v>07/02/2024</v>
       </c>
       <c r="I92" t="str">
-        <v/>
+        <v>07/12/2024</v>
       </c>
       <c r="J92" t="str">
-        <v>07/12/2024</v>
+        <v>07/19/2024</v>
       </c>
       <c r="K92" t="str">
         <v>false</v>
       </c>
       <c r="L92" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="M92" t="str">
         <v/>
@@ -5752,16 +5752,16 @@
         <v>07/02/2024</v>
       </c>
       <c r="I101" t="str">
-        <v/>
+        <v>07/12/2024</v>
       </c>
       <c r="J101" t="str">
-        <v>07/12/2024</v>
+        <v>07/19/2024</v>
       </c>
       <c r="K101" t="str">
         <v>false</v>
       </c>
       <c r="L101" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="M101" t="str">
         <v/>
@@ -6041,7 +6041,7 @@
         <v/>
       </c>
       <c r="Q106" t="str">
-        <v/>
+        <v>CATCH-UP PLAN</v>
       </c>
     </row>
     <row r="107">
@@ -6147,7 +6147,7 @@
         <v/>
       </c>
       <c r="Q108" t="str">
-        <v/>
+        <v>CATCH-UP PLAN</v>
       </c>
     </row>
     <row r="109">
@@ -6934,7 +6934,7 @@
         <v>Date of export</v>
       </c>
       <c r="B3" t="str">
-        <v>07/15/2024</v>
+        <v>07/18/2024</v>
       </c>
     </row>
   </sheetData>
